--- a/medicine/Enfance/Susanne_Janssen/Susanne_Janssen.xlsx
+++ b/medicine/Enfance/Susanne_Janssen/Susanne_Janssen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Susanne Janssen, née en 1965 à Aix-la-Chapelle[1], est une illustratrice allemande.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Susanne Janssen, née en 1965 à Aix-la-Chapelle, est une illustratrice allemande.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Janssen a étudié le graphisme et le design auprès de Wolf Erlbruch à la Fachhochschule Düsseldorf[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Janssen a étudié le graphisme et le design auprès de Wolf Erlbruch à la Fachhochschule Düsseldorf.
 </t>
         </is>
       </c>
@@ -542,13 +556,15 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1995 : Sélection Deutscher Jugendliteraturpreis[2], catégorie Livre illustré, pour Le Pari aux trois colères (sur un texte de Italo Calvino)
-1997 :  Pomme d'Or de Bratislava de la Biennale d'illustration de Bratislava (BIB)[3] pour Die Wette, wer zuerst wütend wird. (Le Pari aux trois colères) (texte de Italo Calvino).
-2002 : Nomination Deutscher Jugendliteraturpreis[4], catégorie Livre illustré, pour Le Petit chaperon rouge (texte des frères Grimm)
-2008 : Deutscher Jugendliteraturpreis[5], catégorie Livre illustré, pour Hansel et Gretel (texte des frères Grimm)
-2010 : (international) « Honour List »[6] de l' IBBY pour  Hansel et Gretel (texte des frères Grimm)</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1995 : Sélection Deutscher Jugendliteraturpreis, catégorie Livre illustré, pour Le Pari aux trois colères (sur un texte de Italo Calvino)
+1997 :  Pomme d'Or de Bratislava de la Biennale d'illustration de Bratislava (BIB) pour Die Wette, wer zuerst wütend wird. (Le Pari aux trois colères) (texte de Italo Calvino).
+2002 : Nomination Deutscher Jugendliteraturpreis, catégorie Livre illustré, pour Le Petit chaperon rouge (texte des frères Grimm)
+2008 : Deutscher Jugendliteraturpreis, catégorie Livre illustré, pour Hansel et Gretel (texte des frères Grimm)
+2010 : (international) « Honour List » de l' IBBY pour  Hansel et Gretel (texte des frères Grimm)</t>
         </is>
       </c>
     </row>
@@ -576,18 +592,89 @@
           <t>Œuvres pour enfants (sélection)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plusieurs des ouvrages qu'elle a illustrés ont été traduits en français[1].
-Traduites en français
-1995 : Italo Calvino, Le Pari aux trois colères (Die Wette, wer zuerst wütend wird), la Joie de lire
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs des ouvrages qu'elle a illustrés ont été traduits en français.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Susanne_Janssen</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Susanne_Janssen</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres pour enfants (sélection)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Traduites en français</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1995 : Italo Calvino, Le Pari aux trois colères (Die Wette, wer zuerst wütend wird), la Joie de lire
 1999 : Susanne Janssen, La leçon de piano de madame Butterfly , texte français de Bernard Friot, Milan
 2002 : Frères Grimm, Le Petit Chaperon rouge (Rotkäppchen), éditions Seuil jeunesse
 2004 : Jutta Richter, Un soir, près d'un grand lac tranquille, traduit de l'allemand par Genia Catala, la Joie de lire
 2007 : Frères Grimm, Hansel et Gretel, éditions Etre
-2008 :  Anna Castagnoli, L'incroyable histoire de l'enfant terrible et de la petite fille oiseau, OQO éd.
-Autres
-1993 : Italo Calvino, Die Braut, die von Luft lebte
+2008 :  Anna Castagnoli, L'incroyable histoire de l'enfant terrible et de la petite fille oiseau, OQO éd.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Susanne_Janssen</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Susanne_Janssen</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres pour enfants (sélection)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1993 : Italo Calvino, Die Braut, die von Luft lebte
 1993 : Italo Calvino, Die Hose des Teufels, Jahresgabe
 1995 : Armando, Dirk, der Zwerg und andere Märchen
 1996 : Marianne Koch, Die Abenteuer der kleinen Wolke
